--- a/资料/知识库模版.xlsx
+++ b/资料/知识库模版.xlsx
@@ -1,84 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24735" windowHeight="11820"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="公告栏格式" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>客户服务部知识库软件结构模版</t>
+  </si>
   <si>
     <t>公告栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公告人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>报装通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通气通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停气通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>驻点通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户服务部知识库软件结构模版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -86,20 +73,356 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -108,17 +431,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -126,14 +458,247 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -141,38 +706,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -186,14 +798,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="600075"/>
+          <a:off x="6038850" y="1200150"/>
           <a:ext cx="1247775" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -235,6 +847,11 @@
             </a:rPr>
             <a:t>知识库</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -253,15 +870,89 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485776" y="1752599"/>
-          <a:ext cx="876300" cy="628651"/>
+          <a:off x="485775" y="2352040"/>
+          <a:ext cx="876300" cy="629285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通知、公告、信息等模版</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2352675"/>
+          <a:ext cx="1247775" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,8 +991,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>通知、公告、信息等模版</a:t>
+            <a:t>楼宇收费标准</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -311,24 +1007,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="1752600"/>
-          <a:ext cx="1247775" cy="419100"/>
+          <a:off x="2095500" y="3362325"/>
+          <a:ext cx="1247775" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -367,8 +1063,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>楼宇收费标准</a:t>
+            <a:t>户内明细信息</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -376,26 +1077,230 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="2762251"/>
-          <a:ext cx="1247775" cy="447674"/>
+          <a:off x="3819525" y="2324100"/>
+          <a:ext cx="1247775" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公告栏</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="3362325"/>
+          <a:ext cx="1247775" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>报装通气信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>停气信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>户外宣传信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>其它</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="2305050"/>
+          <a:ext cx="1247775" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -434,242 +1339,13 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>户内明细信息</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819525" y="1724025"/>
-          <a:ext cx="1247775" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>公告栏</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819525" y="2762250"/>
-          <a:ext cx="1247775" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>报装通气信息</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>停气信息</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>户外宣传信息</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>其它</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6038850" y="1704975"/>
-          <a:ext cx="1247775" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>燃气具相关</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -688,14 +1364,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="2762250"/>
+          <a:off x="5800725" y="3362325"/>
           <a:ext cx="771525" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -737,6 +1413,11 @@
             </a:rPr>
             <a:t>产品信息</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -755,14 +1436,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="2762250"/>
+          <a:off x="6858000" y="3362325"/>
           <a:ext cx="771525" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -804,6 +1485,11 @@
             </a:rPr>
             <a:t>促销活动</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -822,15 +1508,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="1704975"/>
-          <a:ext cx="952499" cy="552450"/>
+          <a:off x="8162925" y="2305050"/>
+          <a:ext cx="951865" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,6 +1573,11 @@
             </a:rPr>
             <a:t>（政府文件）</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -905,14 +1596,14 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="矩形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658225" y="428625"/>
+          <a:off x="8658225" y="1028700"/>
           <a:ext cx="1143000" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -954,6 +1645,11 @@
             </a:rPr>
             <a:t>燃气价格</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -972,14 +1668,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11430000" y="1743075"/>
+          <a:off x="11430000" y="2343150"/>
           <a:ext cx="933450" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1021,6 +1717,11 @@
             </a:rPr>
             <a:t>燃气知识</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1039,14 +1740,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="矩形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010900" y="2771775"/>
+          <a:off x="11010900" y="3371850"/>
           <a:ext cx="771525" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1088,6 +1789,11 @@
             </a:rPr>
             <a:t>户内安装标准</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1106,14 +1812,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="矩形 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12163425" y="2781299"/>
+          <a:off x="12163425" y="3380740"/>
           <a:ext cx="819150" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1155,6 +1861,11 @@
             </a:rPr>
             <a:t>安检、隐患整改知识</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1173,14 +1884,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9744075" y="1733549"/>
+          <a:off x="9744075" y="2332990"/>
           <a:ext cx="771525" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1247,7 +1958,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="肘形连接符 23"/>
         <xdr:cNvCxnSpPr>
@@ -1257,8 +1968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3426620" y="-1483519"/>
-          <a:ext cx="733424" cy="5738812"/>
+          <a:off x="3426460" y="-883285"/>
+          <a:ext cx="733425" cy="5738495"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1302,7 +2013,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="肘形连接符 24"/>
         <xdr:cNvCxnSpPr>
@@ -1312,7 +2023,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4324351" y="-585788"/>
+          <a:off x="4324350" y="13970"/>
           <a:ext cx="733425" cy="3943350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1357,7 +2068,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="肘形连接符 27"/>
         <xdr:cNvCxnSpPr>
@@ -1367,7 +2078,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5200651" y="261938"/>
+          <a:off x="5200650" y="861695"/>
           <a:ext cx="704850" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1412,7 +2123,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>448469</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="肘形连接符 32"/>
         <xdr:cNvCxnSpPr>
@@ -1422,8 +2133,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6319838" y="1362075"/>
-          <a:ext cx="685800" cy="1588"/>
+          <a:off x="6319520" y="1962150"/>
+          <a:ext cx="685800" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1467,7 +2178,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="肘形连接符 35"/>
         <xdr:cNvCxnSpPr>
@@ -1477,8 +2188,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7308056" y="373856"/>
-          <a:ext cx="685800" cy="1976437"/>
+          <a:off x="7307580" y="973455"/>
+          <a:ext cx="685800" cy="1976755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1522,7 +2233,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="40" name="肘形连接符 39"/>
         <xdr:cNvCxnSpPr>
@@ -1532,8 +2243,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8039101" y="-357188"/>
-          <a:ext cx="714374" cy="3467100"/>
+          <a:off x="8039100" y="242570"/>
+          <a:ext cx="714375" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1577,7 +2288,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="肘形连接符 43"/>
         <xdr:cNvCxnSpPr>
@@ -1587,8 +2298,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8917781" y="-1235869"/>
-          <a:ext cx="723900" cy="5233987"/>
+          <a:off x="8917305" y="-635635"/>
+          <a:ext cx="723900" cy="5233670"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1632,7 +2343,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19844</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
         <xdr:cNvCxnSpPr>
@@ -1642,8 +2353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2338388" y="2381250"/>
-          <a:ext cx="762001" cy="1588"/>
+          <a:off x="2338070" y="2980690"/>
+          <a:ext cx="762000" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1685,7 +2396,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19843</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
         <xdr:cNvCxnSpPr>
@@ -1695,8 +2406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4048126" y="2366962"/>
-          <a:ext cx="790575" cy="1588"/>
+          <a:off x="4048125" y="2966720"/>
+          <a:ext cx="790575" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1738,7 +2449,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="肘形连接符 52"/>
         <xdr:cNvCxnSpPr>
@@ -1748,7 +2459,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6019801" y="2119312"/>
+          <a:off x="6019800" y="2719070"/>
           <a:ext cx="809625" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1793,7 +2504,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="肘形连接符 55"/>
         <xdr:cNvCxnSpPr>
@@ -1803,7 +2514,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6548438" y="2066924"/>
+          <a:off x="6548120" y="2666365"/>
           <a:ext cx="809625" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1848,7 +2559,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="肘形连接符 58"/>
         <xdr:cNvCxnSpPr>
@@ -1858,8 +2569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11906250" y="2114549"/>
-          <a:ext cx="657224" cy="676275"/>
+          <a:off x="11905615" y="2713990"/>
+          <a:ext cx="657225" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1903,7 +2614,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="62" name="肘形连接符 61"/>
         <xdr:cNvCxnSpPr>
@@ -1913,8 +2624,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11322844" y="2197894"/>
-          <a:ext cx="647700" cy="500062"/>
+          <a:off x="11322685" y="2797810"/>
+          <a:ext cx="647700" cy="499745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1958,15 +2669,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="65" name="矩形 64"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8667750" y="847725"/>
-          <a:ext cx="1952626" cy="333375"/>
+          <a:off x="8667750" y="1447800"/>
+          <a:ext cx="1952625" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,6 +2718,11 @@
             </a:rPr>
             <a:t>紧急、重要事项公告栏</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2299,278 +3015,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
+    <row r="1" ht="60.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1"/>
-    <row r="6" spans="1:18" ht="36" customHeight="1">
-      <c r="D6" s="6"/>
+    <row r="4" ht="45" customHeight="1"/>
+    <row r="6" ht="36" customHeight="1" spans="4:4">
+      <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="N7" s="1"/>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1">
-      <c r="D8" s="6"/>
+    <row r="8" ht="27" customHeight="1" spans="4:4">
+      <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="D9" s="6"/>
-      <c r="F9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
+    <row r="9" spans="4:18">
+      <c r="D9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="D10" s="6"/>
+    <row r="10" spans="4:4">
+      <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="D11" s="6"/>
+    <row r="11" spans="4:4">
+      <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="D12" s="6"/>
+    <row r="12" spans="4:4">
+      <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="D13" s="6"/>
+    <row r="13" spans="4:4">
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="2" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="5" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="6" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="7" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="8" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="9" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="10" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="11" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="12" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="13" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="14" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="15" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="16" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="17" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="18" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="19" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="20" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/资料/知识库模版.xlsx
+++ b/资料/知识库模版.xlsx
@@ -56,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +71,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -98,16 +91,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,13 +146,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,29 +176,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -198,10 +191,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,14 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -243,7 +236,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,31 +308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,49 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,49 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +474,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,168 +545,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,7 +950,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1029,7 +1024,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -3022,7 +3019,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3087,7 +3084,7 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/资料/知识库模版.xlsx
+++ b/资料/知识库模版.xlsx
@@ -1302,7 +1302,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1374,7 +1376,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1446,7 +1450,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1518,7 +1524,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -3018,8 +3026,8 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/资料/知识库模版.xlsx
+++ b/资料/知识库模版.xlsx
@@ -1614,7 +1614,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1686,7 +1688,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1758,7 +1762,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1830,7 +1836,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -1902,7 +1910,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -3027,7 +3037,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L10:L11"/>
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
